--- a/xlsx/语言_intext.xlsx
+++ b/xlsx/语言_intext.xlsx
@@ -15,27 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t>语言</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>言語</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_语言</t>
+    <t>言语</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B1</t>
   </si>
   <si>
-    <t>話</t>
+    <t>话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%96%87%E5%AD%A6</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>語言學家</t>
+    <t>语言学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%9A</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>電腦語言</t>
+    <t>电脑语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%B6%93</t>
   </si>
   <si>
-    <t>詩經</t>
+    <t>诗经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9B%85</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8F%B8%E6%A8%82</t>
   </si>
   <si>
-    <t>大司樂</t>
+    <t>大司乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E5%99%A8%E5%AE%98</t>
@@ -209,79 +209,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>喬姆斯基</t>
+    <t>乔姆斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>荷蘭語</t>
+    <t>荷兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6</t>
   </si>
   <si>
-    <t>腦</t>
+    <t>脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%B6%AD</t>
   </si>
   <si>
-    <t>思維</t>
+    <t>思维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
+    <t>机器翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
+    <t>动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>人工語言</t>
+    <t>人工语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>計算機語言</t>
+    <t>计算机语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E8%AE%8A%E9%AB%94</t>
   </si>
   <si>
-    <t>語言變體</t>
+    <t>语言变体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9F%9F%E6%96%B9%E8%A8%80</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>瀕危語言</t>
+    <t>濒危语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AF%AD</t>
@@ -329,9 +329,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
@@ -347,61 +344,58 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>官話</t>
+    <t>官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>印地語</t>
+    <t>印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>孟加拉語</t>
+    <t>孟加拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>標準德語</t>
+    <t>标准德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D-%E5%BE%B7%E5%85%A7%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>納-德內語系</t>
+    <t>纳-德内语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%96%AF%E5%9F%BA%E6%91%A9-%E9%98%BF%E7%95%99%E7%94%B3%E8%AF%AD%E7%B3%BB</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E9%AB%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>臨高語</t>
+    <t>临高语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E8%AF%AD%E6%94%AF</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%88%BE%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>日爾曼語族</t>
+    <t>日尔曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD%E6%97%8F</t>
@@ -599,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>羅曼語族</t>
+    <t>罗曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E7%89%B9%E8%AF%AD%E6%97%8F</t>
@@ -695,9 +689,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E8%AF%AD</t>
   </si>
   <si>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>台灣南島語族</t>
+    <t>台湾南岛语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>曼德語族</t>
+    <t>曼德语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AF%AD</t>
@@ -797,25 +788,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>人造語言</t>
+    <t>人造语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%AD%97</t>
   </si>
   <si>
-    <t>單字</t>
+    <t>单字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>世界語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>伊多語</t>
+    <t>伊多语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%8B%89%E6%99%AE%E5%85%8B%E8%AF%AD</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>國際手語</t>
+    <t>国际手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E8%AF%AD</t>
@@ -923,9 +911,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
   </si>
   <si>
-    <t>语言学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -935,9 +920,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
-    <t>自然语言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%9A%84%E7%B1%BB%E5%9E%8B%E5%88%86%E7%B1%BB</t>
   </si>
   <si>
@@ -947,31 +929,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AF%AD</t>
   </si>
   <si>
-    <t>言语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>語法</t>
+    <t>语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A5%E5%A1%94</t>
   </si>
   <si>
-    <t>巴別塔</t>
+    <t>巴别塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用語</t>
+    <t>通用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%9A%84%E8%B5%B7%E6%BA%90</t>
@@ -983,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -995,16 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2854,7 +2824,7 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2880,10 +2850,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>12</v>
@@ -2909,10 +2879,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2938,10 +2908,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2967,10 +2937,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2996,10 +2966,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -3025,10 +2995,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3054,10 +3024,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3083,10 +3053,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3112,10 +3082,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3141,10 +3111,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3170,10 +3140,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3199,10 +3169,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3228,10 +3198,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3257,10 +3227,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3286,10 +3256,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3315,10 +3285,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3344,10 +3314,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3373,10 +3343,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3402,10 +3372,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3431,10 +3401,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3460,10 +3430,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3489,10 +3459,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3518,10 +3488,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3547,10 +3517,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3576,10 +3546,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3605,10 +3575,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3634,10 +3604,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3663,10 +3633,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3692,10 +3662,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3721,10 +3691,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3750,10 +3720,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3779,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3808,10 +3778,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3837,10 +3807,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3866,10 +3836,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3895,10 +3865,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3924,10 +3894,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3953,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3982,10 +3952,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4011,10 +3981,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4040,10 +4010,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4069,10 +4039,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4098,10 +4068,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4127,10 +4097,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4156,10 +4126,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4185,10 +4155,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4214,10 +4184,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4243,10 +4213,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4272,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4301,10 +4271,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4330,10 +4300,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4359,10 +4329,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4388,10 +4358,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4417,10 +4387,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4446,10 +4416,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4475,10 +4445,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4504,10 +4474,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4533,10 +4503,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4562,10 +4532,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4591,10 +4561,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4620,10 +4590,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4649,10 +4619,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4678,10 +4648,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4707,10 +4677,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4736,10 +4706,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4765,10 +4735,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4794,10 +4764,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4823,10 +4793,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4852,10 +4822,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -4881,10 +4851,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4910,10 +4880,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4939,10 +4909,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4968,10 +4938,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4997,10 +4967,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5026,10 +4996,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5055,10 +5025,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5084,10 +5054,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5113,10 +5083,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5142,10 +5112,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5171,10 +5141,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5200,10 +5170,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5229,10 +5199,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5258,10 +5228,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5287,10 +5257,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5316,10 +5286,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5345,10 +5315,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5374,10 +5344,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5403,10 +5373,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5432,10 +5402,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5461,10 +5431,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5490,10 +5460,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5519,10 +5489,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5548,10 +5518,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5577,10 +5547,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5606,10 +5576,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5635,10 +5605,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5664,10 +5634,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5693,10 +5663,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5722,10 +5692,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -5751,10 +5721,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -5780,10 +5750,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5809,10 +5779,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5838,10 +5808,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5867,10 +5837,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5896,10 +5866,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -5925,10 +5895,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5954,10 +5924,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5983,10 +5953,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6012,10 +5982,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6041,10 +6011,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6070,10 +6040,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6082,64 +6052,6 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
-      </c>
-      <c r="G164" t="n">
-        <v>8</v>
-      </c>
-      <c r="H164" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164</v>
-      </c>
-      <c r="E165" t="s">
-        <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>329</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" t="s">
-        <v>4</v>
-      </c>
-      <c r="I165" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/语言_intext.xlsx
+++ b/xlsx/语言_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>语言</t>
   </si>
@@ -29,7 +29,7 @@
     <t>言語</t>
   </si>
   <si>
-    <t>政策_政策_政治_语言</t>
+    <t>体育运动_体育运动_文化_语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B1</t>
@@ -350,58 +350,52 @@
     <t>官話</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>印地語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>孟加拉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>俄語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>日語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>標準德語</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%96%AF%E5%9D%A6%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>印度斯坦语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>马来语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>孟加拉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
@@ -1353,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,7 +1952,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -2422,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3002,7 +2996,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3234,7 +3228,7 @@
         <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3292,7 +3286,7 @@
         <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3350,7 +3344,7 @@
         <v>138</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -3408,7 +3402,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3437,7 +3431,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -3495,7 +3489,7 @@
         <v>148</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -3524,7 +3518,7 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3582,7 +3576,7 @@
         <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4829,7 +4823,7 @@
         <v>240</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4858,7 +4852,7 @@
         <v>242</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5380,7 +5374,7 @@
         <v>278</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5409,7 +5403,7 @@
         <v>280</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5670,7 +5664,7 @@
         <v>298</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -5699,7 +5693,7 @@
         <v>300</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -5728,7 +5722,7 @@
         <v>302</v>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -5757,7 +5751,7 @@
         <v>304</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -5873,7 +5867,7 @@
         <v>312</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -5902,7 +5896,7 @@
         <v>314</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -5960,7 +5954,7 @@
         <v>318</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -5989,7 +5983,7 @@
         <v>320</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6018,7 +6012,7 @@
         <v>322</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6076,7 +6070,7 @@
         <v>326</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6099,47 +6093,18 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>325</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
       </c>
-      <c r="F164" t="s">
-        <v>328</v>
-      </c>
       <c r="G164" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164</v>
-      </c>
-      <c r="E165" t="s">
-        <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>329</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" t="s">
-        <v>4</v>
-      </c>
-      <c r="I165" t="n">
         <v>3</v>
       </c>
     </row>
